--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>766002.5098234682</v>
+        <v>763301.293172011</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -710,22 +710,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>59.80127191868286</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>106.7230086116337</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>80.0190826029088</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897767</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>199.633621384553</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863688</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.77682125736749</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2734647695173</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713849</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>198.027721630513</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488648</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.1149576747127</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>102.4216669520908</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>96.55812849378221</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,10 +1345,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>226.4085837544991</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915364</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812554</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530801</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075614</v>
+        <v>123.6502311075613</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.0776877888827</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793369</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634833</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171767008</v>
+        <v>121.8000472740353</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922551</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462162</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>152.8697920431144</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.95073797956</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503962</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6197054599919625</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922659</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>252.4360879462837</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.0792452528062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699816</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>228.1152860522257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>39.96816871821991</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833858</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179098</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645678</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.4649598217086</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
         <v>41.00642392276842</v>
@@ -4328,22 +4328,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.1393936243022</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>840.1393936243022</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243022</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>573.7617370571243</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
+        <v>380.4820441686398</v>
+      </c>
+      <c r="Y2" t="n">
         <v>307.3840804899464</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.2030010008617</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>564.7499717197347</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>564.7499717197347</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4413,46 +4413,46 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>947.0545012063945</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>739.2030010008617</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>739.2030010008617</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.4938272096714</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>189.666471045117</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>189.666471045117</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
         <v>189.666471045117</v>
@@ -4489,13 +4489,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>491.2864063532015</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>270.4938272096714</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1016.530915257173</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="C5" t="n">
-        <v>1016.530915257173</v>
+        <v>816.5910675842877</v>
       </c>
       <c r="D5" t="n">
-        <v>658.2652166504229</v>
+        <v>816.5910675842877</v>
       </c>
       <c r="E5" t="n">
-        <v>658.2652166504229</v>
+        <v>430.8028149860434</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6150940397632</v>
+        <v>43.2394535563152</v>
       </c>
       <c r="G5" t="n">
-        <v>444.0706587086825</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275141</v>
+        <v>93.76641159275135</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245562</v>
+        <v>239.032598924556</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825635</v>
+        <v>456.149911482563</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748865</v>
+        <v>729.4041931748858</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.69382320238</v>
+        <v>1011.693823202379</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798414</v>
+        <v>1264.916654798413</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189411</v>
+        <v>1446.535482189409</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518253</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518253</v>
+        <v>1389.996673518251</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.996673518253</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.996673518253</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.996673518253</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="X5" t="n">
-        <v>1016.530915257173</v>
+        <v>1136.345205654769</v>
       </c>
       <c r="Y5" t="n">
-        <v>1016.530915257173</v>
+        <v>1136.345205654769</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324.8893952638714</v>
+        <v>264.6115818588787</v>
       </c>
       <c r="C6" t="n">
-        <v>324.8893952638714</v>
+        <v>264.6115818588787</v>
       </c>
       <c r="D6" t="n">
-        <v>324.8893952638714</v>
+        <v>264.6115818588787</v>
       </c>
       <c r="E6" t="n">
-        <v>165.6519402584159</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="F6" t="n">
-        <v>165.6519402584159</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563431</v>
+        <v>49.44206107563419</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101428</v>
+        <v>159.6385680169446</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414949</v>
+        <v>354.1339118482965</v>
       </c>
       <c r="M6" t="n">
-        <v>829.779171012241</v>
+        <v>600.4576725190424</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584464</v>
+        <v>889.0545187259718</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749982</v>
+        <v>1111.31796589149</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.34742594867</v>
+        <v>1270.370911090178</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261725</v>
+        <v>1534.750911261724</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261725</v>
+        <v>1530.346686757972</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.28249765582</v>
+        <v>1385.878273152067</v>
       </c>
       <c r="T6" t="n">
-        <v>1390.28249765582</v>
+        <v>1189.973630703751</v>
       </c>
       <c r="U6" t="n">
-        <v>1190.254496008838</v>
+        <v>961.8525470243558</v>
       </c>
       <c r="V6" t="n">
-        <v>955.1023877770949</v>
+        <v>726.7004387926131</v>
       </c>
       <c r="W6" t="n">
-        <v>700.8650310488933</v>
+        <v>472.4630820644115</v>
       </c>
       <c r="X6" t="n">
-        <v>700.8650310488933</v>
+        <v>264.6115818588787</v>
       </c>
       <c r="Y6" t="n">
-        <v>493.1047322839394</v>
+        <v>264.6115818588787</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>465.4336201288816</v>
+        <v>236.9104562721276</v>
       </c>
       <c r="C7" t="n">
-        <v>465.4336201288816</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>465.4336201288816</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>465.4336201288816</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>465.4336201288816</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>300.6710366190708</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>148.4222061055757</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523451</v>
+        <v>30.69501822523447</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223268</v>
+        <v>157.4322756223267</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830391</v>
+        <v>375.1387655830389</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388155</v>
+        <v>615.0688576388152</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974828</v>
+        <v>854.7285647974824</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891672</v>
@@ -4747,28 +4747,28 @@
         <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495184</v>
+        <v>1113.866490402741</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495184</v>
+        <v>910.3578444371304</v>
       </c>
       <c r="T7" t="n">
-        <v>1009.535278371729</v>
+        <v>685.6925863136751</v>
       </c>
       <c r="U7" t="n">
-        <v>1009.535278371729</v>
+        <v>685.6925863136751</v>
       </c>
       <c r="V7" t="n">
-        <v>754.8507901658422</v>
+        <v>685.6925863136751</v>
       </c>
       <c r="W7" t="n">
-        <v>465.4336201288816</v>
+        <v>685.6925863136751</v>
       </c>
       <c r="X7" t="n">
-        <v>465.4336201288816</v>
+        <v>457.7030354156577</v>
       </c>
       <c r="Y7" t="n">
-        <v>465.4336201288816</v>
+        <v>236.9104562721276</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2003.121004338519</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2334.18389168209</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2334.18389168209</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.121004338519</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.121004338519</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>2003.121004338519</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.121004338519</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694952</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.9724752679349</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1538.912656949465</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1342.283909109326</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1119.305428304061</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1119.305428304061</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>864.6209400981746</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>864.6209400981746</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>864.6209400981746</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.6209400981746</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2179.492212978668</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="C11" t="n">
-        <v>1810.529696038257</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892298</v>
+        <v>1116.527812193161</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501953</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044465</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455921</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592054</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592054</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706884</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656944</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087827</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484038</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535291</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479987</v>
+        <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464052</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796027</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796027</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796027</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917555</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573984</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.55781130387</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2566.09205304279</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2566.09205304279</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390842</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592054</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870408</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046646</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626155</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019143</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450735</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.3803073755978</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>446.3803073755978</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3803073755978</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>446.3803073755977</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>446.3803073755978</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>278.882324186786</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592054</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758645</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648139</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.57886543448</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376938</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818662</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.94034901072</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742805</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742805</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276101</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710542</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659993</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454106</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171453</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191279</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3803073755978</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273912</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>590.909656468498</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649657</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,61 +5410,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400727</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C16" t="n">
-        <v>402.72459349088</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>402.72459349088</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>402.72459349088</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.72459349088</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854707</v>
@@ -5473,13 +5473,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273908</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.909656468498</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.580456911432</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835254</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711897</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409887964</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.724593490886</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.528494205766</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.42822182018</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.01105178322</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.021500885202</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.228921741672</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5768,19 +5768,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246297</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>551.2636521843871</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>403.3505586019938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038391</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797792</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.10824923517</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258111</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602309</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602309</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565348</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667331</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523801</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,22 +6874,22 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
         <v>1433.701365648819</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121644</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121644</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7175,10 +7175,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399829</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399829</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597617</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637003</v>
+        <v>34.43939438637011</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.6378772658566</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000706</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878358</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>128.2744578661838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638072543</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184577</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615225</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>33.8742071776352</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905251</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811035</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392192703</v>
+        <v>45.44677382459255</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>99.26785128071354</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.6339153725348</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823167</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>144.8013425629393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295032</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.08691039030728</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.75273492913107</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823079</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.02235727160232</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>185.7414866708172</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393027</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4693302300331</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.11969353038623</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908400.8156063564</v>
+        <v>908400.8156063573</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>999733.5759904798</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>999733.5759904798</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999733.5759904796</v>
+        <v>999733.5759904792</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>999733.5759904797</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>999733.5759904793</v>
+        <v>999733.5759904794</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>999733.5759904793</v>
+        <v>999733.5759904794</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904793</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>999733.5759904794</v>
+        <v>999733.5759904792</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26317,25 @@
         <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440575</v>
+        <v>384609.3532440582</v>
       </c>
       <c r="F2" t="n">
-        <v>423751.9648372535</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372536</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.964837253</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.964837253</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372535</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372531</v>
@@ -26344,16 +26344,16 @@
         <v>423751.9648372531</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
         <v>423751.964837253</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657074</v>
+        <v>132804.2190657069</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929374</v>
+        <v>265413.0723929379</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545755</v>
+        <v>313577.1573545774</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704312</v>
+        <v>189308.2687704287</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911394</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641743</v>
+        <v>30877.42926417418</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049563</v>
+        <v>65018.34502049569</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273013</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202441</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382058</v>
+        <v>216477.7990382059</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26427,10 +26427,10 @@
         <v>11671.55765715928</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,25 +26439,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680589</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680586</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667497</v>
+        <v>72593.65038667493</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673855</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-564210.9198798882</v>
       </c>
       <c r="C6" t="n">
-        <v>9171.26068816043</v>
+        <v>9171.260688160823</v>
       </c>
       <c r="D6" t="n">
-        <v>-68846.73620661358</v>
+        <v>-68846.73620661386</v>
       </c>
       <c r="E6" t="n">
-        <v>-25776.84683506274</v>
+        <v>-25997.97814903893</v>
       </c>
       <c r="F6" t="n">
-        <v>121544.1900261092</v>
+        <v>121509.4521006759</v>
       </c>
       <c r="G6" t="n">
-        <v>310852.4587965407</v>
+        <v>310817.7208711046</v>
       </c>
       <c r="H6" t="n">
-        <v>310852.4587965407</v>
+        <v>310817.7208711044</v>
       </c>
       <c r="I6" t="n">
-        <v>310852.4587965402</v>
+        <v>310817.7208711044</v>
       </c>
       <c r="J6" t="n">
-        <v>241853.3043774266</v>
+        <v>241818.5664519904</v>
       </c>
       <c r="K6" t="n">
-        <v>279975.0295323659</v>
+        <v>279940.2916069303</v>
       </c>
       <c r="L6" t="n">
-        <v>245834.1137760445</v>
+        <v>245799.3758506087</v>
       </c>
       <c r="M6" t="n">
-        <v>228955.0550838102</v>
+        <v>228920.3171583737</v>
       </c>
       <c r="N6" t="n">
-        <v>261012.8846645157</v>
+        <v>260978.146739081</v>
       </c>
       <c r="O6" t="n">
-        <v>310852.4587965402</v>
+        <v>310817.7208711044</v>
       </c>
       <c r="P6" t="n">
-        <v>310852.45879654</v>
+        <v>310817.7208711045</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695751</v>
+        <v>717.3319511695747</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154313</v>
+        <v>383.6877278154309</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490068</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000968</v>
+        <v>103.2769374000965</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479642</v>
+        <v>216.7329409479646</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974098</v>
+        <v>268.1763450974113</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267252</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139252</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489678</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506423</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139252</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489676</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506425</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139252</v>
+        <v>119.9738478139247</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846076</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489678</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506423</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>152.4884436845404</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,13 +27512,13 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>144.9719745492859</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>87.22773849571904</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508123084</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>207.2424243571584</v>
+        <v>23.18831792628055</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863692</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.86825919803346</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333228</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951732</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713806</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>27.81215121208879</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374136</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>3.582472263604245</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643522</v>
+        <v>1.905236112643564</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>104.2365180281429</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4.999443925791425</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.015774415123578e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.378452907374594e-11</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.819314548904751e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>7.702283255639486e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-6.063298011819521e-13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-2.114093871441318e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.815772240755027e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.057320897501768e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365124</v>
+        <v>2.883746537365122</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579058</v>
+        <v>29.53316922579057</v>
       </c>
       <c r="I5" t="n">
         <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756934</v>
+        <v>244.7543826756933</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023591</v>
+        <v>366.823373602359</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952472</v>
+        <v>455.0768316952469</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791141</v>
+        <v>506.3606591791139</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284029</v>
+        <v>514.5541040284025</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974783</v>
+        <v>485.8788493974781</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562768</v>
+        <v>414.6863567562766</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868882</v>
+        <v>311.412183886888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277621</v>
+        <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020783</v>
+        <v>65.7133742202078</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.62360046731583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892098</v>
+        <v>0.2306997229892097</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270407</v>
+        <v>1.542940423270406</v>
       </c>
       <c r="H6" t="n">
         <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189778</v>
+        <v>53.12316808189776</v>
       </c>
       <c r="J6" t="n">
         <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453797</v>
+        <v>249.1510419453796</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438662</v>
+        <v>335.0143230438661</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874184</v>
+        <v>390.9459133874182</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189116</v>
+        <v>401.2930884189115</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348673</v>
+        <v>367.1047769348672</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190657</v>
+        <v>294.6339480190655</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739558</v>
+        <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392933</v>
+        <v>95.79765189392928</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399197</v>
+        <v>28.65944163399195</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989049</v>
+        <v>6.219132670989047</v>
       </c>
       <c r="U6" t="n">
         <v>0.1015092383730531</v>
@@ -31440,25 +31440,25 @@
         <v>11.50083029907942</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572057</v>
+        <v>38.90055892572055</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402925</v>
+        <v>91.45394400402921</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401175</v>
+        <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545448</v>
+        <v>192.3155201545447</v>
       </c>
       <c r="M7" t="n">
         <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022535</v>
+        <v>197.9483399022534</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669599</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
         <v>156.4489225960659</v>
@@ -31467,16 +31467,16 @@
         <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.1626857456511</v>
+        <v>58.16268574565107</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101762</v>
+        <v>22.54303853101761</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060658</v>
+        <v>5.526983886060655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864681</v>
+        <v>0.07055724109864676</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869138</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639233</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285601</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203911</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975119</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544647</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795455</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180157</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956794</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.010221962035</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825962</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696625</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968216</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.386650448149531</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58595284985857</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837093</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469199</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193134</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598376</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747741</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821471</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798908</v>
+        <v>267.5398078833321</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924466</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383439</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047536</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627647</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535154</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092165</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798447</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329023</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100537</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770059</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531025</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806235</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493061</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194573</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811697</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493535</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377472</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>223.6976288294618</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>288.895857392916</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>144.237359508534</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900711</v>
+        <v>63.70847814900699</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573786</v>
+        <v>146.7335225573784</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252599</v>
+        <v>219.3104167252597</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518414</v>
+        <v>276.0144259518412</v>
       </c>
       <c r="N5" t="n">
-        <v>285.141040431812</v>
+        <v>285.1410404318116</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757916</v>
+        <v>255.7806379757914</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010073</v>
+        <v>183.4533610010071</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243873</v>
+        <v>89.10649401243856</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959575</v>
+        <v>18.93640691959567</v>
       </c>
       <c r="K6" t="n">
-        <v>342.9474802368773</v>
+        <v>111.3096029710206</v>
       </c>
       <c r="L6" t="n">
-        <v>196.459943263992</v>
+        <v>196.4599432639919</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654001</v>
+        <v>248.8118794653998</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355783</v>
+        <v>291.5119658655852</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904229</v>
+        <v>224.5085324904227</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047355</v>
+        <v>160.6595406047353</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793428</v>
+        <v>267.0505052237833</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,22 +35097,22 @@
         <v>128.0174317142346</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148609</v>
+        <v>219.9055454148608</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391681</v>
+        <v>242.353628339168</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814821</v>
+        <v>242.080512281482</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809996</v>
+        <v>207.4224586809995</v>
       </c>
       <c r="P7" t="n">
         <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491145</v>
+        <v>22.15508137491139</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313206</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072282</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937048</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525313</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844774</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681823</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214247</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739927</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067654</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081467</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.0136023555304</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526467</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854786</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036948999</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601288</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965575</v>
+        <v>136.1980957999988</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480022</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240137</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187321</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186259</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070195</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703698</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388465</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323311</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946632</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141996</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776291</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>81.10138438501743</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>157.5541453095827</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191308</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>6.395920534175052</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096398</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
